--- a/kittyserver/gametools/parseExcelTool/Excel/NewGuide.xlsx
+++ b/kittyserver/gametools/parseExcelTool/Excel/NewGuide.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="272">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1124,15 +1124,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>剧情--建造商店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>middle/2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>middle/1</t>
+    <t>点击--第一个冰块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up/planerMaterials/gri_materials/item_0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1285,7 +1281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1545,6 +1541,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1864,10 +1863,10 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="F20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A43" sqref="A43:XFD43"/>
+      <selection pane="bottomRight" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1895,7 +1894,7 @@
     <col min="28" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="7" customFormat="1" ht="117.75" customHeight="1">
+    <row r="1" spans="1:21" s="7" customFormat="1" ht="158.25" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>133</v>
       </c>
@@ -2827,48 +2826,48 @@
       </c>
       <c r="U19" s="32"/>
     </row>
-    <row r="20" spans="1:21" s="87" customFormat="1" ht="12">
-      <c r="A20" s="87">
+    <row r="20" spans="1:21" s="88" customFormat="1" ht="12">
+      <c r="A20" s="88">
         <v>14</v>
       </c>
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="89" t="s">
         <v>194</v>
       </c>
-      <c r="C20" s="87">
-        <v>0</v>
-      </c>
-      <c r="D20" s="89" t="s">
+      <c r="C20" s="88">
+        <v>0</v>
+      </c>
+      <c r="D20" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="87">
-        <v>0</v>
-      </c>
-      <c r="I20" s="87">
-        <v>0</v>
-      </c>
-      <c r="L20" s="87">
-        <v>0</v>
-      </c>
-      <c r="M20" s="87">
+      <c r="G20" s="88">
+        <v>0</v>
+      </c>
+      <c r="I20" s="88">
+        <v>0</v>
+      </c>
+      <c r="L20" s="88">
+        <v>0</v>
+      </c>
+      <c r="M20" s="88">
         <v>6</v>
       </c>
-      <c r="N20" s="89" t="s">
+      <c r="N20" s="90" t="s">
         <v>269</v>
       </c>
-      <c r="O20" s="87">
-        <v>1</v>
-      </c>
-      <c r="P20" s="87">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="87">
-        <v>0</v>
-      </c>
-      <c r="R20" s="90">
+      <c r="O20" s="88">
+        <v>1</v>
+      </c>
+      <c r="P20" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="88">
+        <v>0</v>
+      </c>
+      <c r="R20" s="91">
         <f>A20</f>
         <v>14</v>
       </c>
-      <c r="T20" s="87">
+      <c r="T20" s="88">
         <v>0</v>
       </c>
     </row>
@@ -2922,7 +2921,7 @@
       <c r="U21" s="64"/>
     </row>
     <row r="22" spans="1:21" s="61" customFormat="1">
-      <c r="A22" s="87">
+      <c r="A22" s="88">
         <v>16</v>
       </c>
       <c r="B22" s="62" t="s">
@@ -3017,45 +3016,42 @@
       <c r="U23" s="64"/>
     </row>
     <row r="24" spans="1:21" s="61" customFormat="1">
-      <c r="A24" s="87">
+      <c r="A24" s="88">
         <v>18</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="C24" s="61">
         <v>0</v>
       </c>
       <c r="D24" s="63" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G24" s="61">
         <v>0</v>
       </c>
       <c r="I24" s="61">
-        <v>0</v>
+        <v>10010111</v>
       </c>
       <c r="L24" s="61">
         <v>0</v>
       </c>
-      <c r="M24" s="61">
-        <v>7</v>
-      </c>
       <c r="N24" s="63" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="O24" s="61">
         <v>1</v>
       </c>
       <c r="P24" s="61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="61">
         <v>0</v>
       </c>
       <c r="R24" s="85">
-        <f>A24</f>
-        <v>18</v>
+        <f>A25</f>
+        <v>19</v>
       </c>
       <c r="T24" s="61">
         <v>0</v>
@@ -3067,83 +3063,89 @@
         <v>19</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="C25" s="61">
         <v>0</v>
       </c>
       <c r="D25" s="63" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G25" s="61">
         <v>0</v>
       </c>
       <c r="I25" s="61">
-        <v>10010111</v>
+        <v>0</v>
       </c>
       <c r="L25" s="61">
         <v>0</v>
       </c>
+      <c r="M25" s="61">
+        <v>7</v>
+      </c>
       <c r="N25" s="63" t="s">
+        <v>269</v>
+      </c>
+      <c r="O25" s="61">
+        <v>1</v>
+      </c>
+      <c r="P25" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="61">
+        <v>0</v>
+      </c>
+      <c r="R25" s="85">
+        <f>A25</f>
+        <v>19</v>
+      </c>
+      <c r="T25" s="61">
+        <v>0</v>
+      </c>
+      <c r="U25" s="64"/>
+    </row>
+    <row r="26" spans="1:21" s="65" customFormat="1">
+      <c r="A26" s="65">
+        <v>20</v>
+      </c>
+      <c r="B26" s="66" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="65">
+        <v>0</v>
+      </c>
+      <c r="D26" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="E26" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="F26" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="G26" s="65">
+        <v>0</v>
+      </c>
+      <c r="I26" s="65">
+        <v>0</v>
+      </c>
+      <c r="L26" s="65">
+        <v>0</v>
+      </c>
+      <c r="N26" s="67" t="s">
         <v>243</v>
       </c>
-      <c r="O25" s="61">
-        <v>1</v>
-      </c>
-      <c r="P25" s="61">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="61">
-        <v>0</v>
-      </c>
-      <c r="R25" s="85">
-        <f>A24</f>
-        <v>18</v>
-      </c>
-      <c r="T25" s="61">
-        <v>0</v>
-      </c>
-      <c r="U25" s="64"/>
-    </row>
-    <row r="26" spans="1:21" s="65" customFormat="1">
-      <c r="A26" s="70">
-        <v>20</v>
-      </c>
-      <c r="B26" s="66" t="s">
-        <v>270</v>
-      </c>
-      <c r="C26" s="65">
-        <v>0</v>
-      </c>
-      <c r="D26" s="67" t="s">
-        <v>224</v>
-      </c>
-      <c r="G26" s="65">
-        <v>0</v>
-      </c>
-      <c r="I26" s="65">
-        <v>0</v>
-      </c>
-      <c r="L26" s="65">
-        <v>0</v>
-      </c>
-      <c r="M26" s="65">
-        <v>8</v>
-      </c>
-      <c r="N26" s="67" t="s">
-        <v>269</v>
-      </c>
       <c r="O26" s="65">
         <v>1</v>
       </c>
       <c r="P26" s="65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="65">
         <v>0</v>
       </c>
       <c r="R26" s="86">
-        <f>A$26</f>
+        <f>A26</f>
         <v>20</v>
       </c>
       <c r="T26" s="65">
@@ -3156,7 +3158,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="66" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="C27" s="65">
         <v>0</v>
@@ -3165,10 +3167,10 @@
         <v>225</v>
       </c>
       <c r="E27" s="65" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F27" s="65" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="G27" s="65">
         <v>0</v>
@@ -3192,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="R27" s="86">
-        <f t="shared" ref="R27:R31" si="0">A$26</f>
+        <f>A26</f>
         <v>20</v>
       </c>
       <c r="T27" s="65">
@@ -3201,26 +3203,23 @@
       <c r="U27" s="68"/>
     </row>
     <row r="28" spans="1:21" s="65" customFormat="1">
-      <c r="A28" s="70">
+      <c r="A28" s="65">
         <v>22</v>
       </c>
       <c r="B28" s="66" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C28" s="65">
         <v>0</v>
       </c>
       <c r="D28" s="67" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E28" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="F28" s="65" t="s">
-        <v>251</v>
-      </c>
-      <c r="G28" s="65">
-        <v>0</v>
+      <c r="G28" s="65" t="s">
+        <v>253</v>
       </c>
       <c r="I28" s="65">
         <v>0</v>
@@ -3241,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="86">
-        <f t="shared" si="0"/>
+        <f>A26</f>
         <v>20</v>
       </c>
       <c r="T28" s="65">
@@ -3254,19 +3253,22 @@
         <v>23</v>
       </c>
       <c r="B29" s="66" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="C29" s="65">
         <v>0</v>
       </c>
       <c r="D29" s="67" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E29" s="65" t="s">
-        <v>231</v>
-      </c>
-      <c r="G29" s="65" t="s">
-        <v>253</v>
+        <v>239</v>
+      </c>
+      <c r="F29" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="G29" s="65">
+        <v>0</v>
       </c>
       <c r="I29" s="65">
         <v>0</v>
@@ -3287,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="86">
-        <f t="shared" si="0"/>
+        <f>A26</f>
         <v>20</v>
       </c>
       <c r="T29" s="65">
@@ -3296,68 +3298,73 @@
       <c r="U29" s="68"/>
     </row>
     <row r="30" spans="1:21" s="65" customFormat="1">
-      <c r="A30" s="70">
+      <c r="A30" s="65">
         <v>24</v>
       </c>
-      <c r="B30" s="66" t="s">
-        <v>221</v>
-      </c>
-      <c r="C30" s="65">
-        <v>0</v>
-      </c>
-      <c r="D30" s="67" t="s">
-        <v>225</v>
-      </c>
-      <c r="E30" s="65" t="s">
-        <v>239</v>
-      </c>
-      <c r="F30" s="65" t="s">
-        <v>237</v>
-      </c>
-      <c r="G30" s="65">
-        <v>0</v>
-      </c>
-      <c r="I30" s="65">
-        <v>0</v>
-      </c>
-      <c r="L30" s="65">
-        <v>0</v>
-      </c>
+      <c r="B30" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="70">
+        <v>3</v>
+      </c>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70">
+        <v>0</v>
+      </c>
+      <c r="H30" s="70"/>
+      <c r="I30" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70">
+        <v>0</v>
+      </c>
+      <c r="M30" s="70"/>
       <c r="N30" s="67" t="s">
-        <v>243</v>
-      </c>
-      <c r="O30" s="65">
-        <v>1</v>
-      </c>
-      <c r="P30" s="65">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="65">
+        <v>165</v>
+      </c>
+      <c r="O30" s="70">
+        <v>1</v>
+      </c>
+      <c r="P30" s="70">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="70">
         <v>0</v>
       </c>
       <c r="R30" s="86">
-        <f t="shared" si="0"/>
+        <f>A26</f>
         <v>20</v>
       </c>
+      <c r="S30" s="70"/>
       <c r="T30" s="65">
         <v>0</v>
       </c>
-      <c r="U30" s="68"/>
+      <c r="U30" s="72">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:21" s="65" customFormat="1">
       <c r="A31" s="65">
         <v>25</v>
       </c>
-      <c r="B31" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="C31" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="D31" s="70">
-        <v>3</v>
-      </c>
-      <c r="E31" s="70"/>
+      <c r="B31" s="73" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="70">
+        <v>0</v>
+      </c>
+      <c r="D31" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" s="74" t="s">
+        <v>173</v>
+      </c>
       <c r="F31" s="70"/>
       <c r="G31" s="70">
         <v>0</v>
@@ -3385,8 +3392,8 @@
         <v>0</v>
       </c>
       <c r="R31" s="86">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>A33</f>
+        <v>27</v>
       </c>
       <c r="S31" s="70"/>
       <c r="T31" s="65">
@@ -3396,154 +3403,150 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="65" customFormat="1">
-      <c r="A32" s="70">
+    <row r="32" spans="1:21" s="76" customFormat="1">
+      <c r="A32" s="65">
         <v>26</v>
       </c>
-      <c r="B32" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="C32" s="70">
-        <v>0</v>
-      </c>
-      <c r="D32" s="71" t="s">
-        <v>171</v>
-      </c>
-      <c r="E32" s="74" t="s">
-        <v>173</v>
-      </c>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70">
-        <v>0</v>
-      </c>
-      <c r="H32" s="70"/>
-      <c r="I32" s="71" t="s">
-        <v>167</v>
-      </c>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70">
-        <v>0</v>
-      </c>
-      <c r="M32" s="70"/>
-      <c r="N32" s="67" t="s">
-        <v>165</v>
-      </c>
-      <c r="O32" s="70">
-        <v>1</v>
-      </c>
-      <c r="P32" s="70">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="70">
-        <v>0</v>
+      <c r="B32" s="75" t="s">
+        <v>210</v>
+      </c>
+      <c r="C32" s="76">
+        <v>0</v>
+      </c>
+      <c r="D32" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="F32" s="77" t="s">
+        <v>213</v>
+      </c>
+      <c r="G32" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="76">
+        <v>0</v>
+      </c>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="O32" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="77" t="s">
+        <v>6</v>
       </c>
       <c r="R32" s="86">
-        <f>A34</f>
-        <v>28</v>
-      </c>
-      <c r="S32" s="70"/>
-      <c r="T32" s="65">
-        <v>0</v>
-      </c>
-      <c r="U32" s="72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" s="76" customFormat="1">
+        <f>A33</f>
+        <v>27</v>
+      </c>
+      <c r="T32" s="76">
+        <v>0</v>
+      </c>
+      <c r="U32" s="79"/>
+    </row>
+    <row r="33" spans="1:21" s="65" customFormat="1">
       <c r="A33" s="65">
         <v>27</v>
       </c>
-      <c r="B33" s="75" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="76">
-        <v>0</v>
-      </c>
-      <c r="D33" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="78" t="s">
-        <v>212</v>
-      </c>
-      <c r="F33" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="G33" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77" t="s">
-        <v>6</v>
-      </c>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="76">
-        <v>0</v>
-      </c>
-      <c r="M33" s="77"/>
-      <c r="N33" s="77" t="s">
-        <v>211</v>
-      </c>
-      <c r="O33" s="77" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="77" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="77" t="s">
-        <v>6</v>
+      <c r="B33" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="C33" s="65">
+        <v>0</v>
+      </c>
+      <c r="D33" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="65">
+        <v>0</v>
+      </c>
+      <c r="I33" s="65">
+        <v>0</v>
+      </c>
+      <c r="L33" s="65">
+        <v>0</v>
+      </c>
+      <c r="M33" s="65">
+        <v>9</v>
+      </c>
+      <c r="N33" s="67" t="s">
+        <v>269</v>
+      </c>
+      <c r="O33" s="65">
+        <v>1</v>
+      </c>
+      <c r="P33" s="65">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="65">
+        <v>0</v>
       </c>
       <c r="R33" s="86">
-        <f>A34</f>
+        <f>A33</f>
+        <v>27</v>
+      </c>
+      <c r="T33" s="65">
+        <v>0</v>
+      </c>
+      <c r="U33" s="72"/>
+    </row>
+    <row r="34" spans="1:21" s="65" customFormat="1">
+      <c r="A34" s="65">
         <v>28</v>
       </c>
-      <c r="T33" s="76">
-        <v>0</v>
-      </c>
-      <c r="U33" s="79"/>
-    </row>
-    <row r="34" spans="1:21" s="65" customFormat="1">
-      <c r="A34" s="70">
-        <v>28</v>
-      </c>
-      <c r="B34" s="65" t="s">
-        <v>197</v>
-      </c>
-      <c r="C34" s="65">
-        <v>0</v>
-      </c>
-      <c r="D34" s="67" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" s="65">
-        <v>0</v>
-      </c>
-      <c r="I34" s="65">
-        <v>0</v>
-      </c>
-      <c r="L34" s="65">
-        <v>0</v>
-      </c>
-      <c r="M34" s="65">
-        <v>9</v>
-      </c>
+      <c r="B34" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="C34" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" s="70">
+        <v>3</v>
+      </c>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70">
+        <v>0</v>
+      </c>
+      <c r="H34" s="70"/>
+      <c r="I34" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70">
+        <v>0</v>
+      </c>
+      <c r="M34" s="70"/>
       <c r="N34" s="67" t="s">
-        <v>269</v>
-      </c>
-      <c r="O34" s="65">
-        <v>1</v>
-      </c>
-      <c r="P34" s="65">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="65">
+        <v>165</v>
+      </c>
+      <c r="O34" s="70">
+        <v>1</v>
+      </c>
+      <c r="P34" s="70">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="70">
         <v>0</v>
       </c>
       <c r="R34" s="86">
-        <f>A34</f>
-        <v>28</v>
-      </c>
+        <f>A33</f>
+        <v>27</v>
+      </c>
+      <c r="S34" s="70"/>
       <c r="T34" s="65">
         <v>0</v>
       </c>
@@ -3554,10 +3557,10 @@
         <v>29</v>
       </c>
       <c r="B35" s="70" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="C35" s="71" t="s">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="D35" s="70">
         <v>3</v>
@@ -3569,7 +3572,7 @@
       </c>
       <c r="H35" s="70"/>
       <c r="I35" s="71" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="J35" s="70"/>
       <c r="K35" s="70"/>
@@ -3578,7 +3581,7 @@
       </c>
       <c r="M35" s="70"/>
       <c r="N35" s="67" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="O35" s="70">
         <v>1</v>
@@ -3590,8 +3593,8 @@
         <v>0</v>
       </c>
       <c r="R35" s="86">
-        <f>A34</f>
-        <v>28</v>
+        <f>A35</f>
+        <v>29</v>
       </c>
       <c r="S35" s="70"/>
       <c r="T35" s="65">
@@ -3600,106 +3603,109 @@
       <c r="U35" s="72"/>
     </row>
     <row r="36" spans="1:21" s="65" customFormat="1">
-      <c r="A36" s="70">
+      <c r="A36" s="65">
         <v>30</v>
       </c>
-      <c r="B36" s="70" t="s">
-        <v>166</v>
-      </c>
-      <c r="C36" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="70">
-        <v>3</v>
-      </c>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="70">
-        <v>0</v>
-      </c>
-      <c r="H36" s="70"/>
+      <c r="B36" s="66" t="s">
+        <v>260</v>
+      </c>
+      <c r="C36" s="65">
+        <v>0</v>
+      </c>
+      <c r="D36" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="G36" s="65">
+        <v>0</v>
+      </c>
       <c r="I36" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="J36" s="70"/>
-      <c r="K36" s="70"/>
-      <c r="L36" s="70">
-        <v>0</v>
-      </c>
-      <c r="M36" s="70"/>
+      <c r="L36" s="65">
+        <v>0</v>
+      </c>
+      <c r="M36" s="65">
+        <v>10</v>
+      </c>
       <c r="N36" s="67" t="s">
-        <v>146</v>
-      </c>
-      <c r="O36" s="70">
-        <v>1</v>
-      </c>
-      <c r="P36" s="70">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="70">
+        <v>269</v>
+      </c>
+      <c r="O36" s="65">
+        <v>1</v>
+      </c>
+      <c r="P36" s="65">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="65">
         <v>0</v>
       </c>
       <c r="R36" s="86">
-        <f>A$36</f>
-        <v>30</v>
-      </c>
-      <c r="S36" s="70"/>
+        <f>A35</f>
+        <v>29</v>
+      </c>
       <c r="T36" s="65">
         <v>0</v>
       </c>
-      <c r="U36" s="72"/>
-    </row>
-    <row r="37" spans="1:21" s="65" customFormat="1">
+      <c r="U36" s="68"/>
+    </row>
+    <row r="37" spans="1:21" s="65" customFormat="1" ht="24">
       <c r="A37" s="65">
         <v>31</v>
       </c>
-      <c r="B37" s="66" t="s">
-        <v>260</v>
+      <c r="B37" s="65" t="s">
+        <v>270</v>
       </c>
       <c r="C37" s="65">
         <v>0</v>
       </c>
       <c r="D37" s="67" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="E37" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="G37" s="65">
-        <v>0</v>
-      </c>
-      <c r="I37" s="71" t="s">
+      <c r="F37" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="G37" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67" t="s">
         <v>160</v>
       </c>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
       <c r="L37" s="65">
         <v>0</v>
       </c>
-      <c r="M37" s="65">
-        <v>10</v>
-      </c>
+      <c r="M37" s="67"/>
       <c r="N37" s="67" t="s">
-        <v>269</v>
-      </c>
-      <c r="O37" s="65">
-        <v>1</v>
-      </c>
-      <c r="P37" s="65">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="65">
-        <v>0</v>
-      </c>
-      <c r="R37" s="86">
-        <f t="shared" ref="R37:R39" si="1">A$36</f>
-        <v>30</v>
+        <v>146</v>
+      </c>
+      <c r="O37" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="P37" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="R37" s="65">
+        <f>A35</f>
+        <v>29</v>
       </c>
       <c r="T37" s="65">
         <v>0</v>
       </c>
-      <c r="U37" s="68"/>
+      <c r="U37" s="81"/>
     </row>
     <row r="38" spans="1:21" s="65" customFormat="1">
-      <c r="A38" s="70">
+      <c r="A38" s="65">
         <v>32</v>
       </c>
       <c r="B38" s="65" t="s">
@@ -3716,7 +3722,7 @@
       </c>
       <c r="F38" s="67"/>
       <c r="G38" s="67" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="H38" s="67"/>
       <c r="I38" s="71" t="s">
@@ -3741,8 +3747,8 @@
         <v>162</v>
       </c>
       <c r="R38" s="86">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f>A35</f>
+        <v>29</v>
       </c>
       <c r="T38" s="65">
         <v>0</v>
@@ -3794,8 +3800,8 @@
         <v>162</v>
       </c>
       <c r="R39" s="86">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f>A35</f>
+        <v>29</v>
       </c>
       <c r="T39" s="65">
         <v>0</v>
@@ -3804,8 +3810,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="65" customFormat="1" ht="12">
-      <c r="A40" s="70">
+    <row r="40" spans="1:21" s="65" customFormat="1" ht="24">
+      <c r="A40" s="65">
         <v>34</v>
       </c>
       <c r="B40" s="65" t="s">
@@ -3849,8 +3855,8 @@
         <v>162</v>
       </c>
       <c r="R40" s="86">
-        <f>A$40</f>
-        <v>34</v>
+        <f>A35</f>
+        <v>29</v>
       </c>
       <c r="T40" s="65">
         <v>0</v>
@@ -3906,7 +3912,7 @@
       <c r="U41" s="68"/>
     </row>
     <row r="42" spans="1:21" s="65" customFormat="1">
-      <c r="A42" s="70">
+      <c r="A42" s="65">
         <v>36</v>
       </c>
       <c r="B42" s="65" t="s">
@@ -3921,9 +3927,7 @@
       <c r="E42" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="F42" s="67" t="s">
-        <v>271</v>
-      </c>
+      <c r="F42" s="67"/>
       <c r="G42" s="67" t="s">
         <v>162</v>
       </c>
@@ -3957,57 +3961,8 @@
       </c>
       <c r="U42" s="72"/>
     </row>
-    <row r="43" spans="1:21" s="65" customFormat="1">
-      <c r="A43" s="65">
-        <v>37</v>
-      </c>
-      <c r="B43" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="C43" s="65">
-        <v>0</v>
-      </c>
-      <c r="D43" s="67" t="s">
-        <v>177</v>
-      </c>
-      <c r="E43" s="80" t="s">
-        <v>178</v>
-      </c>
-      <c r="F43" s="67" t="s">
-        <v>272</v>
-      </c>
-      <c r="G43" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" s="67"/>
-      <c r="I43" s="71" t="s">
-        <v>175</v>
-      </c>
-      <c r="J43" s="67"/>
-      <c r="K43" s="67"/>
-      <c r="L43" s="65">
-        <v>0</v>
-      </c>
-      <c r="M43" s="67"/>
-      <c r="N43" s="67" t="s">
-        <v>165</v>
-      </c>
-      <c r="O43" s="67" t="s">
-        <v>174</v>
-      </c>
-      <c r="P43" s="67" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q43" s="67" t="s">
-        <v>16</v>
-      </c>
-      <c r="R43" s="86">
-        <v>0</v>
-      </c>
-      <c r="T43" s="65">
-        <v>0</v>
-      </c>
-      <c r="U43" s="72"/>
+    <row r="43" spans="1:21">
+      <c r="R43" s="87"/>
     </row>
   </sheetData>
   <autoFilter ref="A6:AA42"/>
